--- a/Taux d'intervention et Budget.xlsx
+++ b/Taux d'intervention et Budget.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Téléchargements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Diginamic\2. Cours\27. Dossier De Planification\D08b_Projet_Pilotage_Et_Management_Des_Equipes_Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0AEE99-2E11-4362-9A05-5A776F39AE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6488664E-431D-4188-814F-56F9D1CE75DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{27248545-0240-4138-B9CD-61F8F3A1B516}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="51">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -290,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -447,11 +447,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -574,6 +583,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -746,13 +764,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>54330</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>3612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>500992</xdr:colOff>
-      <xdr:row>91</xdr:row>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>119992</xdr:colOff>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>109921</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2457,10 +2475,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E2B0953-547A-468C-A6AA-D6655CD09BC8}">
-  <dimension ref="I2:V44"/>
+  <dimension ref="I2:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView tabSelected="1" topLeftCell="D10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2472,10 +2490,15 @@
     <col min="10" max="10" width="17" style="15" customWidth="1"/>
     <col min="11" max="11" width="16.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.28515625" style="15" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="14" customWidth="1"/>
-    <col min="14" max="14" width="27.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" style="14" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" style="14" customWidth="1"/>
     <col min="15" max="16" width="21.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="14"/>
+    <col min="17" max="17" width="1" style="14" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" style="14" customWidth="1"/>
+    <col min="19" max="19" width="6.140625" style="14" customWidth="1"/>
+    <col min="20" max="21" width="11.42578125" style="14"/>
+    <col min="22" max="22" width="3.5703125" style="14" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
     <row r="2" spans="9:22" x14ac:dyDescent="0.25">
@@ -2546,8 +2569,8 @@
       <c r="T15" s="59">
         <v>45901</v>
       </c>
-      <c r="U15" s="59"/>
-      <c r="V15" s="59"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
     </row>
     <row r="16" spans="9:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="I16" s="16"/>
@@ -2566,14 +2589,12 @@
       <c r="R16" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="S16" s="58" t="s">
+      <c r="S16" s="60" t="s">
         <v>3</v>
       </c>
       <c r="T16" s="58"/>
-      <c r="U16" s="58" t="s">
-        <v>4</v>
-      </c>
-      <c r="V16" s="58"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
     </row>
     <row r="17" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I17" s="16"/>
@@ -2591,7 +2612,8 @@
       <c r="Q17" s="25"/>
       <c r="R17" s="27"/>
       <c r="T17" s="25"/>
-      <c r="V17" s="25"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
     </row>
     <row r="18" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I18" s="39" t="s">
@@ -2601,7 +2623,7 @@
         <v>45463</v>
       </c>
       <c r="K18" s="18">
-        <v>45854</v>
+        <v>45852</v>
       </c>
       <c r="L18" s="19">
         <f>'New Budget'!Q9</f>
@@ -2612,7 +2634,8 @@
       <c r="Q18" s="26"/>
       <c r="R18" s="28"/>
       <c r="T18" s="26"/>
-      <c r="V18" s="26"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
     </row>
     <row r="19" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I19" s="22" t="s">
@@ -2627,7 +2650,8 @@
       <c r="Q19" s="26"/>
       <c r="R19" s="28"/>
       <c r="T19" s="26"/>
-      <c r="V19" s="26"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
     </row>
     <row r="20" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I20" s="23" t="s">
@@ -2642,7 +2666,8 @@
       <c r="Q20" s="26"/>
       <c r="R20" s="28"/>
       <c r="T20" s="26"/>
-      <c r="V20" s="26"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
     </row>
     <row r="21" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I21" s="23" t="s">
@@ -2657,7 +2682,8 @@
       <c r="Q21" s="26"/>
       <c r="R21" s="28"/>
       <c r="T21" s="26"/>
-      <c r="V21" s="26"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
     </row>
     <row r="22" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I22" s="23" t="s">
@@ -2672,17 +2698,18 @@
       <c r="Q22" s="26"/>
       <c r="R22" s="28"/>
       <c r="T22" s="26"/>
-      <c r="V22" s="26"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
     </row>
     <row r="23" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I23" s="12" t="s">
         <v>7</v>
       </c>
       <c r="J23" s="21">
-        <v>45855</v>
+        <v>45852</v>
       </c>
       <c r="K23" s="18">
-        <v>45872</v>
+        <v>45870</v>
       </c>
       <c r="L23" s="19">
         <f>'New Budget'!Q10</f>
@@ -2693,7 +2720,8 @@
       <c r="Q23" s="26"/>
       <c r="R23" s="28"/>
       <c r="T23" s="26"/>
-      <c r="V23" s="26"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
     </row>
     <row r="24" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I24" s="23" t="s">
@@ -2708,7 +2736,8 @@
       <c r="Q24" s="42"/>
       <c r="R24" s="28"/>
       <c r="T24" s="26"/>
-      <c r="V24" s="26"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
     </row>
     <row r="25" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I25" s="23" t="s">
@@ -2723,7 +2752,8 @@
       <c r="Q25" s="44"/>
       <c r="R25" s="28"/>
       <c r="T25" s="26"/>
-      <c r="V25" s="26"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
     </row>
     <row r="26" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I26" s="23" t="s">
@@ -2738,7 +2768,8 @@
       <c r="Q26" s="44"/>
       <c r="R26" s="28"/>
       <c r="T26" s="26"/>
-      <c r="V26" s="26"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
     </row>
     <row r="27" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I27" s="23" t="s">
@@ -2753,32 +2784,34 @@
       <c r="Q27" s="48"/>
       <c r="R27" s="28"/>
       <c r="T27" s="26"/>
-      <c r="V27" s="26"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
     </row>
     <row r="28" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I28" s="12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J28" s="21">
-        <v>45873</v>
+        <v>45871</v>
       </c>
       <c r="K28" s="18">
-        <v>45882</v>
+        <v>45886</v>
       </c>
       <c r="L28" s="19">
-        <f>'New Budget'!Q11</f>
-        <v>0</v>
+        <f>'New Budget'!Q12</f>
+        <v>18300</v>
       </c>
       <c r="M28" s="26"/>
       <c r="O28" s="26"/>
       <c r="Q28" s="26"/>
       <c r="R28" s="28"/>
       <c r="T28" s="26"/>
-      <c r="V28" s="26"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
     </row>
     <row r="29" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I29" s="23" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
@@ -2787,12 +2820,14 @@
       <c r="O29" s="26"/>
       <c r="Q29" s="26"/>
       <c r="R29" s="49"/>
+      <c r="S29" s="62"/>
       <c r="T29" s="26"/>
-      <c r="V29" s="26"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
     </row>
     <row r="30" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I30" s="23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
@@ -2801,12 +2836,14 @@
       <c r="O30" s="26"/>
       <c r="Q30" s="26"/>
       <c r="R30" s="50"/>
+      <c r="S30" s="62"/>
       <c r="T30" s="26"/>
-      <c r="V30" s="26"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
     </row>
     <row r="31" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I31" s="23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
@@ -2815,12 +2852,14 @@
       <c r="O31" s="26"/>
       <c r="Q31" s="26"/>
       <c r="R31" s="50"/>
+      <c r="S31" s="62"/>
       <c r="T31" s="26"/>
-      <c r="V31" s="26"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="62"/>
     </row>
     <row r="32" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I32" s="23" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
@@ -2829,33 +2868,36 @@
       <c r="O32" s="26"/>
       <c r="Q32" s="26"/>
       <c r="R32" s="51"/>
+      <c r="S32" s="61"/>
       <c r="T32" s="26"/>
-      <c r="V32" s="26"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
     </row>
     <row r="33" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I33" s="12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J33" s="21">
-        <v>45883</v>
+        <v>45887</v>
       </c>
       <c r="K33" s="18">
-        <v>45906</v>
+        <v>45910</v>
       </c>
       <c r="L33" s="19">
-        <f>'New Budget'!Q12</f>
-        <v>18300</v>
+        <f>'New Budget'!Q13</f>
+        <v>8400</v>
       </c>
       <c r="M33" s="26"/>
       <c r="O33" s="26"/>
       <c r="Q33" s="26"/>
       <c r="R33" s="28"/>
       <c r="T33" s="26"/>
-      <c r="V33" s="26"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
     </row>
     <row r="34" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I34" s="23" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
@@ -2866,11 +2908,12 @@
       <c r="R34" s="28"/>
       <c r="S34" s="52"/>
       <c r="T34" s="53"/>
-      <c r="V34" s="26"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
     </row>
     <row r="35" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I35" s="23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="17"/>
@@ -2881,11 +2924,12 @@
       <c r="R35" s="28"/>
       <c r="S35" s="54"/>
       <c r="T35" s="55"/>
-      <c r="V35" s="26"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
     </row>
     <row r="36" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I36" s="23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J36" s="17"/>
       <c r="K36" s="17"/>
@@ -2896,11 +2940,12 @@
       <c r="R36" s="28"/>
       <c r="S36" s="54"/>
       <c r="T36" s="55"/>
-      <c r="V36" s="26"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
     </row>
     <row r="37" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I37" s="23" t="s">
-        <v>40</v>
+      <c r="I37" s="24" t="s">
+        <v>44</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
@@ -2911,118 +2956,43 @@
       <c r="R37" s="28"/>
       <c r="S37" s="45"/>
       <c r="T37" s="46"/>
-      <c r="V37" s="26"/>
-    </row>
-    <row r="38" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I38" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J38" s="21">
-        <v>45907</v>
-      </c>
-      <c r="K38" s="18">
-        <v>45927</v>
-      </c>
-      <c r="L38" s="19">
-        <f>'New Budget'!Q13</f>
-        <v>8400</v>
-      </c>
-      <c r="M38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="28"/>
-      <c r="T38" s="26"/>
-      <c r="V38" s="26"/>
-    </row>
-    <row r="39" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I39" s="23" t="s">
-        <v>41</v>
-      </c>
+      <c r="U37" s="62"/>
+      <c r="V37" s="62"/>
+    </row>
+    <row r="38" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I38" s="29"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="34"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="62"/>
+      <c r="V38" s="62"/>
+    </row>
+    <row r="39" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I39" s="16"/>
       <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="28"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="52"/>
-      <c r="V39" s="53"/>
-    </row>
-    <row r="40" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I40" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="J40" s="17"/>
-      <c r="K40" s="17"/>
-      <c r="L40" s="37"/>
-      <c r="M40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="28"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="54"/>
-      <c r="V40" s="55"/>
-    </row>
-    <row r="41" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I41" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="J41" s="17"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="37"/>
-      <c r="M41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="28"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="54"/>
-      <c r="V41" s="55"/>
-    </row>
-    <row r="42" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I42" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J42" s="17"/>
-      <c r="K42" s="17"/>
-      <c r="L42" s="37"/>
-      <c r="M42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="28"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="45"/>
-      <c r="V42" s="46"/>
-    </row>
-    <row r="43" spans="9:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I43" s="29"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="38"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="33"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="33"/>
-    </row>
-    <row r="44" spans="9:22" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="I44" s="16"/>
-      <c r="J44" s="17"/>
-      <c r="K44" s="30" t="s">
+      <c r="K39" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="L44" s="20">
-        <f>SUM(L18:L42)</f>
+      <c r="L39" s="20">
+        <f>SUM(L18:L37)</f>
         <v>44695</v>
       </c>
-    </row>
+      <c r="U39" s="62"/>
+      <c r="V39" s="62"/>
+    </row>
+    <row r="40" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="9:22" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="Q15:S15"/>
@@ -3030,7 +3000,6 @@
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="P16:Q16"/>
     <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
